--- a/Prediction based on convolutional neural network/worklog/structure.xlsx
+++ b/Prediction based on convolutional neural network/worklog/structure.xlsx
@@ -277,42 +277,42 @@
   </cellStyleXfs>
   <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -603,7 +603,7 @@
   <dimension ref="A1:AL6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+      <selection activeCell="Q7" sqref="Q7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -623,72 +623,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="6" t="s">
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="5" t="s">
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
       <c r="N1" s="8" t="s">
         <v>19</v>
       </c>
       <c r="O1" s="8"/>
       <c r="P1" s="8"/>
-      <c r="Q1" s="10" t="s">
+      <c r="Q1" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="R1" s="10"/>
-      <c r="S1" s="10"/>
-      <c r="T1" s="7" t="s">
+      <c r="R1" s="9"/>
+      <c r="S1" s="9"/>
+      <c r="T1" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="U1" s="7"/>
-      <c r="V1" s="7"/>
-      <c r="W1" s="1" t="s">
+      <c r="U1" s="16"/>
+      <c r="V1" s="16"/>
+      <c r="W1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="X1" s="1"/>
-      <c r="Y1" s="1"/>
-      <c r="Z1" s="4" t="s">
+      <c r="X1" s="7"/>
+      <c r="Y1" s="7"/>
+      <c r="Z1" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="AA1" s="4"/>
-      <c r="AB1" s="4"/>
-      <c r="AC1" s="9" t="s">
+      <c r="AA1" s="10"/>
+      <c r="AB1" s="10"/>
+      <c r="AC1" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="AD1" s="9"/>
-      <c r="AE1" s="9"/>
-      <c r="AF1" s="9"/>
-      <c r="AG1" s="9"/>
-      <c r="AH1" s="3" t="s">
+      <c r="AD1" s="11"/>
+      <c r="AE1" s="11"/>
+      <c r="AF1" s="11"/>
+      <c r="AG1" s="11"/>
+      <c r="AH1" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="AI1" s="3"/>
-      <c r="AJ1" s="3"/>
-      <c r="AK1" s="3"/>
-      <c r="AL1" s="3"/>
+      <c r="AI1" s="12"/>
+      <c r="AJ1" s="12"/>
+      <c r="AK1" s="12"/>
+      <c r="AL1" s="12"/>
     </row>
     <row r="2" spans="1:38" ht="15" thickTop="1" x14ac:dyDescent="0.2">
       <c r="E2" t="s">
@@ -804,7 +804,7 @@
       <c r="C3">
         <v>0.9</v>
       </c>
-      <c r="D3" s="14">
+      <c r="D3" s="4">
         <v>500</v>
       </c>
       <c r="E3">
@@ -834,13 +834,13 @@
       <c r="M3" t="s">
         <v>6</v>
       </c>
-      <c r="N3" s="15">
+      <c r="N3" s="5">
         <v>1E-4</v>
       </c>
-      <c r="O3" s="15">
+      <c r="O3" s="5">
         <v>1E-4</v>
       </c>
-      <c r="P3" s="15">
+      <c r="P3" s="5">
         <v>1E-4</v>
       </c>
       <c r="Q3" t="s">
@@ -914,16 +914,16 @@
       <c r="A4">
         <v>1</v>
       </c>
-      <c r="D4" s="14">
+      <c r="D4" s="4">
         <v>500</v>
       </c>
-      <c r="N4" s="14">
+      <c r="N4" s="4">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="O4" s="14">
+      <c r="O4" s="4">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="P4" s="14">
+      <c r="P4" s="4">
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
@@ -931,16 +931,16 @@
       <c r="A5">
         <v>2</v>
       </c>
-      <c r="D5" s="14">
+      <c r="D5" s="4">
         <v>300</v>
       </c>
-      <c r="N5" s="14">
+      <c r="N5" s="4">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="O5" s="14">
+      <c r="O5" s="4">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="P5" s="14">
+      <c r="P5" s="4">
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
@@ -948,31 +948,31 @@
       <c r="A6">
         <v>3</v>
       </c>
-      <c r="D6" s="16">
+      <c r="D6" s="6">
         <v>100</v>
       </c>
-      <c r="N6" s="14">
+      <c r="N6" s="4">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="O6" s="14">
+      <c r="O6" s="4">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="P6" s="14">
+      <c r="P6" s="4">
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="AH1:AL1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="T1:V1"/>
     <mergeCell ref="W1:Y1"/>
     <mergeCell ref="N1:P1"/>
     <mergeCell ref="Q1:S1"/>
     <mergeCell ref="Z1:AB1"/>
     <mergeCell ref="AC1:AG1"/>
-    <mergeCell ref="AH1:AL1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="T1:V1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Prediction based on convolutional neural network/worklog/structure.xlsx
+++ b/Prediction based on convolutional neural network/worklog/structure.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>卷积核个数</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -114,6 +114,14 @@
   </si>
   <si>
     <t>学习率更新周期</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>平均</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>池化方式</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -155,7 +163,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -229,6 +237,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -275,7 +289,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -283,6 +297,22 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -296,21 +326,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -600,10 +615,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AL6"/>
+  <dimension ref="A1:AO7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q7" sqref="Q7"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="U26" sqref="U26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -622,7 +637,7 @@
     <col min="15" max="19" width="8.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:41" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -635,62 +650,67 @@
       <c r="D1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="14" t="s">
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="15" t="s">
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="8" t="s">
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="9" t="s">
+      <c r="O1" s="14"/>
+      <c r="P1" s="14"/>
+      <c r="Q1" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="R1" s="9"/>
-      <c r="S1" s="9"/>
-      <c r="T1" s="16" t="s">
+      <c r="R1" s="15"/>
+      <c r="S1" s="15"/>
+      <c r="T1" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="U1" s="16"/>
-      <c r="V1" s="16"/>
-      <c r="W1" s="7" t="s">
+      <c r="U1" s="12"/>
+      <c r="V1" s="12"/>
+      <c r="W1" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="X1" s="7"/>
-      <c r="Y1" s="7"/>
-      <c r="Z1" s="10" t="s">
+      <c r="X1" s="13"/>
+      <c r="Y1" s="13"/>
+      <c r="Z1" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="AA1" s="10"/>
-      <c r="AB1" s="10"/>
-      <c r="AC1" s="11" t="s">
+      <c r="AA1" s="16"/>
+      <c r="AB1" s="16"/>
+      <c r="AC1" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="AD1" s="16"/>
+      <c r="AE1" s="16"/>
+      <c r="AF1" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="AD1" s="11"/>
-      <c r="AE1" s="11"/>
-      <c r="AF1" s="11"/>
-      <c r="AG1" s="11"/>
-      <c r="AH1" s="12" t="s">
+      <c r="AG1" s="17"/>
+      <c r="AH1" s="17"/>
+      <c r="AI1" s="17"/>
+      <c r="AJ1" s="17"/>
+      <c r="AK1" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="AI1" s="12"/>
-      <c r="AJ1" s="12"/>
-      <c r="AK1" s="12"/>
-      <c r="AL1" s="12"/>
+      <c r="AL1" s="8"/>
+      <c r="AM1" s="8"/>
+      <c r="AN1" s="8"/>
+      <c r="AO1" s="8"/>
     </row>
-    <row r="2" spans="1:38" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:41" ht="15" thickTop="1" x14ac:dyDescent="0.2">
       <c r="E2" t="s">
         <v>3</v>
       </c>
@@ -773,28 +793,22 @@
         <v>2</v>
       </c>
       <c r="AF2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AI2" t="s">
         <v>16</v>
       </c>
-      <c r="AG2" t="s">
+      <c r="AJ2" t="s">
         <v>17</v>
       </c>
-      <c r="AH2" t="s">
-        <v>3</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>1</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>16</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>17</v>
-      </c>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>0</v>
       </c>
@@ -879,23 +893,23 @@
       <c r="AB3" t="s">
         <v>12</v>
       </c>
-      <c r="AC3">
-        <v>512</v>
-      </c>
-      <c r="AD3">
-        <v>256</v>
-      </c>
-      <c r="AE3">
-        <v>128</v>
+      <c r="AC3" t="s">
+        <v>24</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>24</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>24</v>
       </c>
       <c r="AF3">
-        <v>64</v>
+        <v>1E-4</v>
       </c>
       <c r="AG3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>1E-4</v>
+        <v>0</v>
       </c>
       <c r="AI3">
         <v>0</v>
@@ -903,14 +917,8 @@
       <c r="AJ3">
         <v>0</v>
       </c>
-      <c r="AK3">
-        <v>0</v>
-      </c>
-      <c r="AL3">
-        <v>0</v>
-      </c>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -927,7 +935,7 @@
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2</v>
       </c>
@@ -944,7 +952,7 @@
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>3</v>
       </c>
@@ -961,9 +969,35 @@
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
+    <row r="7" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="D7" s="6">
+        <v>300</v>
+      </c>
+      <c r="E7" s="7">
+        <v>8</v>
+      </c>
+      <c r="F7" s="7">
+        <v>16</v>
+      </c>
+      <c r="G7" s="7">
+        <v>32</v>
+      </c>
+      <c r="N7" s="4">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="O7" s="4">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="P7" s="4">
+        <v>1.0000000000000001E-5</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="AH1:AL1"/>
+  <mergeCells count="11">
+    <mergeCell ref="AK1:AO1"/>
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="H1:J1"/>
     <mergeCell ref="K1:M1"/>
@@ -972,7 +1006,8 @@
     <mergeCell ref="N1:P1"/>
     <mergeCell ref="Q1:S1"/>
     <mergeCell ref="Z1:AB1"/>
-    <mergeCell ref="AC1:AG1"/>
+    <mergeCell ref="AF1:AJ1"/>
+    <mergeCell ref="AC1:AE1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Prediction based on convolutional neural network/worklog/structure.xlsx
+++ b/Prediction based on convolutional neural network/worklog/structure.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="28">
   <si>
     <t>卷积核个数</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -122,6 +122,14 @@
   </si>
   <si>
     <t>池化方式</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>预测元素</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>T,Y,E</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -163,7 +171,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -243,6 +251,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -289,7 +303,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -298,6 +312,15 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -326,6 +349,11 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="44" fontId="1" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -615,29 +643,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AO7"/>
+  <dimension ref="A1:BB8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="U26" sqref="U26"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="12.75" customWidth="1"/>
-    <col min="3" max="3" width="11.875" customWidth="1"/>
-    <col min="4" max="4" width="17.75" customWidth="1"/>
-    <col min="5" max="5" width="6.5" customWidth="1"/>
-    <col min="6" max="6" width="7.75" customWidth="1"/>
-    <col min="7" max="7" width="8" customWidth="1"/>
-    <col min="10" max="10" width="10.5" customWidth="1"/>
-    <col min="11" max="11" width="9.25" customWidth="1"/>
-    <col min="12" max="12" width="9.5" customWidth="1"/>
-    <col min="13" max="13" width="8.25" customWidth="1"/>
-    <col min="14" max="14" width="8" customWidth="1"/>
-    <col min="15" max="19" width="8.125" customWidth="1"/>
+    <col min="3" max="4" width="11.875" customWidth="1"/>
+    <col min="5" max="5" width="17.75" customWidth="1"/>
+    <col min="6" max="7" width="6.5" customWidth="1"/>
+    <col min="8" max="9" width="7.75" customWidth="1"/>
+    <col min="10" max="11" width="8" customWidth="1"/>
+    <col min="16" max="17" width="10.5" customWidth="1"/>
+    <col min="18" max="19" width="9.25" customWidth="1"/>
+    <col min="20" max="21" width="9.5" customWidth="1"/>
+    <col min="22" max="23" width="8.25" customWidth="1"/>
+    <col min="24" max="25" width="8" customWidth="1"/>
+    <col min="26" max="32" width="8.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:54" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -648,167 +676,182 @@
         <v>22</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="F1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="10" t="s">
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="11" t="s">
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="13"/>
+      <c r="Q1" s="8"/>
+      <c r="R1" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="14" t="s">
+      <c r="S1" s="14"/>
+      <c r="T1" s="14"/>
+      <c r="U1" s="14"/>
+      <c r="V1" s="14"/>
+      <c r="W1" s="9"/>
+      <c r="X1" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="O1" s="14"/>
-      <c r="P1" s="14"/>
-      <c r="Q1" s="15" t="s">
+      <c r="Y1" s="17"/>
+      <c r="Z1" s="17"/>
+      <c r="AA1" s="17"/>
+      <c r="AB1" s="17"/>
+      <c r="AC1" s="10"/>
+      <c r="AD1" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="R1" s="15"/>
-      <c r="S1" s="15"/>
-      <c r="T1" s="12" t="s">
+      <c r="AE1" s="18"/>
+      <c r="AF1" s="18"/>
+      <c r="AG1" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="U1" s="12"/>
-      <c r="V1" s="12"/>
-      <c r="W1" s="13" t="s">
+      <c r="AH1" s="15"/>
+      <c r="AI1" s="15"/>
+      <c r="AJ1" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="X1" s="13"/>
-      <c r="Y1" s="13"/>
-      <c r="Z1" s="16" t="s">
+      <c r="AK1" s="16"/>
+      <c r="AL1" s="16"/>
+      <c r="AM1" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="AA1" s="16"/>
-      <c r="AB1" s="16"/>
-      <c r="AC1" s="16" t="s">
+      <c r="AN1" s="19"/>
+      <c r="AO1" s="19"/>
+      <c r="AP1" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="AD1" s="16"/>
-      <c r="AE1" s="16"/>
-      <c r="AF1" s="17" t="s">
+      <c r="AQ1" s="19"/>
+      <c r="AR1" s="19"/>
+      <c r="AS1" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="AG1" s="17"/>
-      <c r="AH1" s="17"/>
-      <c r="AI1" s="17"/>
-      <c r="AJ1" s="17"/>
-      <c r="AK1" s="8" t="s">
+      <c r="AT1" s="20"/>
+      <c r="AU1" s="20"/>
+      <c r="AV1" s="20"/>
+      <c r="AW1" s="20"/>
+      <c r="AX1" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="AL1" s="8"/>
-      <c r="AM1" s="8"/>
-      <c r="AN1" s="8"/>
-      <c r="AO1" s="8"/>
+      <c r="AY1" s="11"/>
+      <c r="AZ1" s="11"/>
+      <c r="BA1" s="11"/>
+      <c r="BB1" s="11"/>
     </row>
-    <row r="2" spans="1:41" ht="15" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="E2" t="s">
+    <row r="2" spans="1:54" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="F2" t="s">
         <v>3</v>
       </c>
-      <c r="F2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s">
-        <v>2</v>
-      </c>
       <c r="H2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I2" t="s">
         <v>1</v>
       </c>
       <c r="J2" t="s">
         <v>2</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>3</v>
       </c>
-      <c r="L2" t="s">
-        <v>1</v>
-      </c>
-      <c r="M2" t="s">
-        <v>2</v>
-      </c>
       <c r="N2" t="s">
-        <v>3</v>
-      </c>
-      <c r="O2" t="s">
         <v>1</v>
       </c>
       <c r="P2" t="s">
         <v>2</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>3</v>
       </c>
-      <c r="R2" t="s">
-        <v>1</v>
-      </c>
-      <c r="S2" t="s">
-        <v>2</v>
-      </c>
       <c r="T2" t="s">
-        <v>3</v>
-      </c>
-      <c r="U2" t="s">
         <v>1</v>
       </c>
       <c r="V2" t="s">
         <v>2</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>3</v>
       </c>
-      <c r="X2" t="s">
-        <v>1</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>2</v>
-      </c>
       <c r="Z2" t="s">
-        <v>3</v>
-      </c>
-      <c r="AA2" t="s">
         <v>1</v>
       </c>
       <c r="AB2" t="s">
         <v>2</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>3</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AE2" t="s">
         <v>1</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AF2" t="s">
         <v>2</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="AG2" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" t="s">
+      <c r="AH2" t="s">
         <v>1</v>
       </c>
-      <c r="AH2" t="s">
+      <c r="AI2" t="s">
         <v>2</v>
       </c>
-      <c r="AI2" t="s">
+      <c r="AJ2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AV2" t="s">
         <v>16</v>
       </c>
-      <c r="AJ2" t="s">
+      <c r="AW2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>0</v>
       </c>
@@ -818,196 +861,238 @@
       <c r="C3">
         <v>0.9</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="4">
         <v>500</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>4</v>
       </c>
-      <c r="F3">
+      <c r="H3">
         <v>8</v>
       </c>
-      <c r="G3">
+      <c r="J3">
         <v>16</v>
       </c>
-      <c r="H3" t="s">
+      <c r="L3" t="s">
         <v>4</v>
       </c>
-      <c r="I3" t="s">
+      <c r="N3" t="s">
         <v>4</v>
       </c>
-      <c r="J3" t="s">
+      <c r="P3" t="s">
         <v>4</v>
       </c>
-      <c r="K3" t="s">
+      <c r="R3" t="s">
         <v>6</v>
       </c>
-      <c r="L3" t="s">
+      <c r="T3" t="s">
         <v>6</v>
       </c>
-      <c r="M3" t="s">
+      <c r="V3" t="s">
         <v>6</v>
       </c>
-      <c r="N3" s="5">
+      <c r="X3" s="5">
         <v>1E-4</v>
       </c>
-      <c r="O3" s="5">
+      <c r="Y3" s="5"/>
+      <c r="Z3" s="5">
         <v>1E-4</v>
       </c>
-      <c r="P3" s="5">
+      <c r="AA3" s="5"/>
+      <c r="AB3" s="5">
         <v>1E-4</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="AC3" s="5"/>
+      <c r="AD3" t="s">
         <v>12</v>
       </c>
-      <c r="R3" t="s">
+      <c r="AE3" t="s">
         <v>12</v>
       </c>
-      <c r="S3" t="s">
+      <c r="AF3" t="s">
         <v>11</v>
       </c>
-      <c r="T3" t="s">
+      <c r="AG3" t="s">
         <v>9</v>
       </c>
-      <c r="U3" t="s">
+      <c r="AH3" t="s">
         <v>9</v>
       </c>
-      <c r="V3" t="s">
+      <c r="AI3" t="s">
         <v>9</v>
       </c>
-      <c r="W3" t="s">
+      <c r="AJ3" t="s">
         <v>6</v>
       </c>
-      <c r="X3" t="s">
+      <c r="AK3" t="s">
         <v>6</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="AL3" t="s">
         <v>6</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AM3" t="s">
         <v>12</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AN3" t="s">
         <v>12</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AO3" t="s">
         <v>12</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AP3" t="s">
         <v>24</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AQ3" t="s">
         <v>24</v>
       </c>
-      <c r="AE3" t="s">
+      <c r="AR3" t="s">
         <v>24</v>
       </c>
-      <c r="AF3">
+      <c r="AS3">
         <v>1E-4</v>
       </c>
-      <c r="AG3">
+      <c r="AT3">
         <v>0</v>
       </c>
-      <c r="AH3">
+      <c r="AU3">
         <v>0</v>
       </c>
-      <c r="AI3">
+      <c r="AV3">
         <v>0</v>
       </c>
-      <c r="AJ3">
+      <c r="AW3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="4">
         <v>500</v>
       </c>
-      <c r="N4" s="4">
+      <c r="X4" s="4">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="O4" s="4">
+      <c r="Y4" s="4"/>
+      <c r="Z4" s="4">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="P4" s="4">
+      <c r="AA4" s="4"/>
+      <c r="AB4" s="4">
         <v>1.0000000000000001E-5</v>
       </c>
+      <c r="AC4" s="4"/>
     </row>
-    <row r="5" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="4">
         <v>300</v>
       </c>
-      <c r="N5" s="4">
+      <c r="X5" s="4">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="O5" s="4">
+      <c r="Y5" s="4"/>
+      <c r="Z5" s="4">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="P5" s="4">
+      <c r="AA5" s="4"/>
+      <c r="AB5" s="4">
         <v>1.0000000000000001E-5</v>
       </c>
+      <c r="AC5" s="4"/>
     </row>
-    <row r="6" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>3</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="6">
         <v>100</v>
       </c>
-      <c r="N6" s="4">
+      <c r="X6" s="4">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="O6" s="4">
+      <c r="Y6" s="4"/>
+      <c r="Z6" s="4">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="P6" s="4">
+      <c r="AA6" s="4"/>
+      <c r="AB6" s="4">
         <v>1.0000000000000001E-5</v>
       </c>
+      <c r="AC6" s="4"/>
     </row>
-    <row r="7" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>4</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="6">
         <v>300</v>
       </c>
-      <c r="E7" s="7">
+      <c r="F7" s="7">
         <v>8</v>
       </c>
-      <c r="F7" s="7">
+      <c r="G7" s="7"/>
+      <c r="H7" s="7">
         <v>16</v>
       </c>
-      <c r="G7" s="7">
+      <c r="I7" s="7"/>
+      <c r="J7" s="7">
         <v>32</v>
       </c>
-      <c r="N7" s="4">
+      <c r="K7" s="7"/>
+      <c r="X7" s="4">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="O7" s="4">
+      <c r="Y7" s="4"/>
+      <c r="Z7" s="4">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="P7" s="4">
+      <c r="AA7" s="4"/>
+      <c r="AB7" s="4">
         <v>1.0000000000000001E-5</v>
       </c>
+      <c r="AC7" s="4"/>
+    </row>
+    <row r="8" spans="1:54" x14ac:dyDescent="0.2">
+      <c r="D8" s="22"/>
+      <c r="X8" s="22"/>
+      <c r="Y8" s="22"/>
+      <c r="Z8" s="22"/>
+      <c r="AA8" s="22"/>
+      <c r="AB8" s="22"/>
+      <c r="AC8" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="AK1:AO1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="T1:V1"/>
-    <mergeCell ref="W1:Y1"/>
-    <mergeCell ref="N1:P1"/>
-    <mergeCell ref="Q1:S1"/>
-    <mergeCell ref="Z1:AB1"/>
-    <mergeCell ref="AF1:AJ1"/>
-    <mergeCell ref="AC1:AE1"/>
+    <mergeCell ref="AX1:BB1"/>
+    <mergeCell ref="F1:J1"/>
+    <mergeCell ref="L1:P1"/>
+    <mergeCell ref="R1:V1"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AJ1:AL1"/>
+    <mergeCell ref="X1:AB1"/>
+    <mergeCell ref="AD1:AF1"/>
+    <mergeCell ref="AM1:AO1"/>
+    <mergeCell ref="AS1:AW1"/>
+    <mergeCell ref="AP1:AR1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Prediction based on convolutional neural network/worklog/structure.xlsx
+++ b/Prediction based on convolutional neural network/worklog/structure.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="29">
   <si>
     <t>卷积核个数</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -130,6 +130,10 @@
   </si>
   <si>
     <t>T,Y,E</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>T,Y</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -321,39 +325,39 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="44" fontId="1" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -645,8 +649,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BB8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -681,77 +685,77 @@
       <c r="E1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="23"/>
-      <c r="L1" s="13" t="s">
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13"/>
-      <c r="O1" s="13"/>
-      <c r="P1" s="13"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
+      <c r="P1" s="16"/>
       <c r="Q1" s="8"/>
-      <c r="R1" s="14" t="s">
+      <c r="R1" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="S1" s="14"/>
-      <c r="T1" s="14"/>
-      <c r="U1" s="14"/>
-      <c r="V1" s="14"/>
+      <c r="S1" s="17"/>
+      <c r="T1" s="17"/>
+      <c r="U1" s="17"/>
+      <c r="V1" s="17"/>
       <c r="W1" s="9"/>
-      <c r="X1" s="17" t="s">
+      <c r="X1" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="Y1" s="17"/>
-      <c r="Z1" s="17"/>
-      <c r="AA1" s="17"/>
-      <c r="AB1" s="17"/>
+      <c r="Y1" s="20"/>
+      <c r="Z1" s="20"/>
+      <c r="AA1" s="20"/>
+      <c r="AB1" s="20"/>
       <c r="AC1" s="10"/>
-      <c r="AD1" s="18" t="s">
+      <c r="AD1" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="AE1" s="18"/>
-      <c r="AF1" s="18"/>
-      <c r="AG1" s="15" t="s">
+      <c r="AE1" s="21"/>
+      <c r="AF1" s="21"/>
+      <c r="AG1" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="AH1" s="15"/>
-      <c r="AI1" s="15"/>
-      <c r="AJ1" s="16" t="s">
+      <c r="AH1" s="18"/>
+      <c r="AI1" s="18"/>
+      <c r="AJ1" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="AK1" s="16"/>
-      <c r="AL1" s="16"/>
-      <c r="AM1" s="19" t="s">
+      <c r="AK1" s="19"/>
+      <c r="AL1" s="19"/>
+      <c r="AM1" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="AN1" s="19"/>
-      <c r="AO1" s="19"/>
-      <c r="AP1" s="19" t="s">
+      <c r="AN1" s="22"/>
+      <c r="AO1" s="22"/>
+      <c r="AP1" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="AQ1" s="19"/>
-      <c r="AR1" s="19"/>
-      <c r="AS1" s="20" t="s">
+      <c r="AQ1" s="22"/>
+      <c r="AR1" s="22"/>
+      <c r="AS1" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="AT1" s="20"/>
-      <c r="AU1" s="20"/>
-      <c r="AV1" s="20"/>
-      <c r="AW1" s="20"/>
-      <c r="AX1" s="11" t="s">
+      <c r="AT1" s="23"/>
+      <c r="AU1" s="23"/>
+      <c r="AV1" s="23"/>
+      <c r="AW1" s="23"/>
+      <c r="AX1" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="AY1" s="11"/>
-      <c r="AZ1" s="11"/>
-      <c r="BA1" s="11"/>
-      <c r="BB1" s="11"/>
+      <c r="AY1" s="14"/>
+      <c r="AZ1" s="14"/>
+      <c r="BA1" s="14"/>
+      <c r="BB1" s="14"/>
     </row>
     <row r="2" spans="1:54" ht="15" thickTop="1" x14ac:dyDescent="0.2">
       <c r="F2" t="s">
@@ -861,7 +865,7 @@
       <c r="C3">
         <v>0.9</v>
       </c>
-      <c r="D3" s="21" t="s">
+      <c r="D3" s="11" t="s">
         <v>27</v>
       </c>
       <c r="E3" s="4">
@@ -971,7 +975,7 @@
       <c r="A4">
         <v>1</v>
       </c>
-      <c r="D4" s="21" t="s">
+      <c r="D4" s="11" t="s">
         <v>27</v>
       </c>
       <c r="E4" s="4">
@@ -994,7 +998,7 @@
       <c r="A5">
         <v>2</v>
       </c>
-      <c r="D5" s="21" t="s">
+      <c r="D5" s="11" t="s">
         <v>27</v>
       </c>
       <c r="E5" s="4">
@@ -1017,7 +1021,7 @@
       <c r="A6">
         <v>3</v>
       </c>
-      <c r="D6" s="21" t="s">
+      <c r="D6" s="11" t="s">
         <v>27</v>
       </c>
       <c r="E6" s="6">
@@ -1040,7 +1044,7 @@
       <c r="A7">
         <v>4</v>
       </c>
-      <c r="D7" s="21" t="s">
+      <c r="D7" s="11" t="s">
         <v>27</v>
       </c>
       <c r="E7" s="6">
@@ -1072,13 +1076,21 @@
       <c r="AC7" s="4"/>
     </row>
     <row r="8" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="D8" s="22"/>
-      <c r="X8" s="22"/>
-      <c r="Y8" s="22"/>
-      <c r="Z8" s="22"/>
-      <c r="AA8" s="22"/>
-      <c r="AB8" s="22"/>
-      <c r="AC8" s="22"/>
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8" s="11">
+        <v>0.08</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="X8" s="12"/>
+      <c r="Y8" s="12"/>
+      <c r="Z8" s="12"/>
+      <c r="AA8" s="12"/>
+      <c r="AB8" s="12"/>
+      <c r="AC8" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="11">

--- a/Prediction based on convolutional neural network/worklog/structure.xlsx
+++ b/Prediction based on convolutional neural network/worklog/structure.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="31">
   <si>
     <t>卷积核个数</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -93,10 +93,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>全连接层</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>卷积层正则化参数（不使用正则化为0）</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -134,6 +130,18 @@
   </si>
   <si>
     <t>T,Y</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试集最好R值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试集最好RPD值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>批次</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -194,12 +202,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="3" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -264,8 +266,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -297,6 +305,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -307,59 +324,78 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="44" fontId="1" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="44" fontId="1" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -647,10 +683,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BB8"/>
+  <dimension ref="A1:BD8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -658,204 +694,212 @@
     <col min="2" max="2" width="12.75" customWidth="1"/>
     <col min="3" max="4" width="11.875" customWidth="1"/>
     <col min="5" max="5" width="17.75" customWidth="1"/>
-    <col min="6" max="7" width="6.5" customWidth="1"/>
-    <col min="8" max="9" width="7.75" customWidth="1"/>
-    <col min="10" max="11" width="8" customWidth="1"/>
-    <col min="16" max="17" width="10.5" customWidth="1"/>
-    <col min="18" max="19" width="9.25" customWidth="1"/>
-    <col min="20" max="21" width="9.5" customWidth="1"/>
-    <col min="22" max="23" width="8.25" customWidth="1"/>
-    <col min="24" max="25" width="8" customWidth="1"/>
-    <col min="26" max="32" width="8.125" customWidth="1"/>
+    <col min="6" max="6" width="17.75" style="27" customWidth="1"/>
+    <col min="7" max="12" width="17.75" customWidth="1"/>
+    <col min="13" max="14" width="6.5" customWidth="1"/>
+    <col min="15" max="16" width="7.75" customWidth="1"/>
+    <col min="17" max="18" width="8" customWidth="1"/>
+    <col min="23" max="24" width="10.5" customWidth="1"/>
+    <col min="25" max="26" width="9.25" customWidth="1"/>
+    <col min="27" max="28" width="9.5" customWidth="1"/>
+    <col min="29" max="30" width="8.25" customWidth="1"/>
+    <col min="31" max="32" width="8" customWidth="1"/>
+    <col min="33" max="39" width="8.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:54" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:56" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="16" t="s">
+      <c r="F1" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="N1" s="14"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="14"/>
+      <c r="Q1" s="14"/>
+      <c r="R1" s="13"/>
+      <c r="S1" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16"/>
-      <c r="P1" s="16"/>
-      <c r="Q1" s="8"/>
-      <c r="R1" s="17" t="s">
+      <c r="T1" s="15"/>
+      <c r="U1" s="15"/>
+      <c r="V1" s="15"/>
+      <c r="W1" s="15"/>
+      <c r="X1" s="8"/>
+      <c r="Y1" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="S1" s="17"/>
-      <c r="T1" s="17"/>
-      <c r="U1" s="17"/>
-      <c r="V1" s="17"/>
-      <c r="W1" s="9"/>
-      <c r="X1" s="20" t="s">
+      <c r="Z1" s="16"/>
+      <c r="AA1" s="16"/>
+      <c r="AB1" s="16"/>
+      <c r="AC1" s="16"/>
+      <c r="AD1" s="9"/>
+      <c r="AE1" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="AF1" s="19"/>
+      <c r="AG1" s="19"/>
+      <c r="AH1" s="19"/>
+      <c r="AI1" s="19"/>
+      <c r="AJ1" s="10"/>
+      <c r="AK1" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="AL1" s="20"/>
+      <c r="AM1" s="20"/>
+      <c r="AN1" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="AO1" s="17"/>
+      <c r="AP1" s="17"/>
+      <c r="AQ1" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="AR1" s="18"/>
+      <c r="AS1" s="18"/>
+      <c r="AT1" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="AU1" s="21"/>
+      <c r="AV1" s="21"/>
+      <c r="AW1" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="AX1" s="21"/>
+      <c r="AY1" s="21"/>
+      <c r="AZ1" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="Y1" s="20"/>
-      <c r="Z1" s="20"/>
-      <c r="AA1" s="20"/>
-      <c r="AB1" s="20"/>
-      <c r="AC1" s="10"/>
-      <c r="AD1" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="AE1" s="21"/>
-      <c r="AF1" s="21"/>
-      <c r="AG1" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="AH1" s="18"/>
-      <c r="AI1" s="18"/>
-      <c r="AJ1" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="AK1" s="19"/>
-      <c r="AL1" s="19"/>
-      <c r="AM1" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="AN1" s="22"/>
-      <c r="AO1" s="22"/>
-      <c r="AP1" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="AQ1" s="22"/>
-      <c r="AR1" s="22"/>
-      <c r="AS1" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="AT1" s="23"/>
-      <c r="AU1" s="23"/>
-      <c r="AV1" s="23"/>
-      <c r="AW1" s="23"/>
-      <c r="AX1" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="AY1" s="14"/>
-      <c r="AZ1" s="14"/>
-      <c r="BA1" s="14"/>
-      <c r="BB1" s="14"/>
+      <c r="BA1" s="22"/>
+      <c r="BB1" s="22"/>
+      <c r="BC1" s="22"/>
+      <c r="BD1" s="22"/>
     </row>
-    <row r="2" spans="1:54" ht="15" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="F2" t="s">
+    <row r="2" spans="1:56" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="M2" t="s">
         <v>3</v>
       </c>
-      <c r="H2" t="s">
+      <c r="O2" t="s">
         <v>1</v>
       </c>
-      <c r="J2" t="s">
+      <c r="Q2" t="s">
         <v>2</v>
       </c>
-      <c r="L2" t="s">
+      <c r="S2" t="s">
         <v>3</v>
       </c>
-      <c r="N2" t="s">
+      <c r="U2" t="s">
         <v>1</v>
       </c>
-      <c r="P2" t="s">
+      <c r="W2" t="s">
         <v>2</v>
       </c>
-      <c r="R2" t="s">
+      <c r="Y2" t="s">
         <v>3</v>
       </c>
-      <c r="T2" t="s">
+      <c r="AA2" t="s">
         <v>1</v>
       </c>
-      <c r="V2" t="s">
+      <c r="AC2" t="s">
         <v>2</v>
       </c>
-      <c r="X2" t="s">
+      <c r="AE2" t="s">
         <v>3</v>
       </c>
-      <c r="Z2" t="s">
-        <v>1</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>3</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>1</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>2</v>
-      </c>
       <c r="AG2" t="s">
-        <v>3</v>
-      </c>
-      <c r="AH2" t="s">
         <v>1</v>
       </c>
       <c r="AI2" t="s">
         <v>2</v>
       </c>
-      <c r="AJ2" t="s">
+      <c r="AK2" t="s">
         <v>3</v>
       </c>
-      <c r="AK2" t="s">
+      <c r="AL2" t="s">
         <v>1</v>
       </c>
-      <c r="AL2" t="s">
+      <c r="AM2" t="s">
         <v>2</v>
       </c>
-      <c r="AM2" t="s">
+      <c r="AN2" t="s">
         <v>3</v>
       </c>
-      <c r="AN2" t="s">
+      <c r="AO2" t="s">
         <v>1</v>
       </c>
-      <c r="AO2" t="s">
+      <c r="AP2" t="s">
         <v>2</v>
       </c>
-      <c r="AP2" t="s">
+      <c r="AQ2" t="s">
         <v>3</v>
       </c>
-      <c r="AQ2" t="s">
+      <c r="AR2" t="s">
         <v>1</v>
       </c>
-      <c r="AR2" t="s">
+      <c r="AS2" t="s">
         <v>2</v>
       </c>
-      <c r="AS2" t="s">
+      <c r="AT2" t="s">
         <v>3</v>
       </c>
-      <c r="AT2" t="s">
+      <c r="AU2" t="s">
         <v>1</v>
       </c>
-      <c r="AU2" t="s">
+      <c r="AV2" t="s">
         <v>2</v>
       </c>
-      <c r="AV2" t="s">
+      <c r="AW2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AY2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AZ2" t="s">
+        <v>3</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>1</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>2</v>
+      </c>
+      <c r="BC2" t="s">
         <v>16</v>
       </c>
-      <c r="AW2" t="s">
+      <c r="BD2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>0</v>
       </c>
@@ -866,216 +910,343 @@
         <v>0.9</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E3" s="4">
         <v>500</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="28"/>
+      <c r="M3">
         <v>4</v>
       </c>
-      <c r="H3">
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
         <v>8</v>
       </c>
-      <c r="J3">
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
         <v>16</v>
       </c>
-      <c r="L3" t="s">
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3" t="s">
         <v>4</v>
       </c>
-      <c r="N3" t="s">
+      <c r="U3" t="s">
         <v>4</v>
       </c>
-      <c r="P3" t="s">
+      <c r="W3" t="s">
         <v>4</v>
       </c>
-      <c r="R3" t="s">
+      <c r="Y3" t="s">
         <v>6</v>
       </c>
-      <c r="T3" t="s">
+      <c r="AA3" t="s">
         <v>6</v>
       </c>
-      <c r="V3" t="s">
+      <c r="AC3" t="s">
         <v>6</v>
       </c>
-      <c r="X3" s="5">
+      <c r="AE3" s="5">
         <v>1E-4</v>
       </c>
-      <c r="Y3" s="5"/>
-      <c r="Z3" s="5">
+      <c r="AF3" s="5"/>
+      <c r="AG3" s="5">
         <v>1E-4</v>
       </c>
-      <c r="AA3" s="5"/>
-      <c r="AB3" s="5">
+      <c r="AH3" s="5"/>
+      <c r="AI3" s="5">
         <v>1E-4</v>
       </c>
-      <c r="AC3" s="5"/>
-      <c r="AD3" t="s">
+      <c r="AJ3" s="5"/>
+      <c r="AK3" t="s">
         <v>12</v>
       </c>
-      <c r="AE3" t="s">
+      <c r="AL3" t="s">
         <v>12</v>
       </c>
-      <c r="AF3" t="s">
+      <c r="AM3" t="s">
         <v>11</v>
       </c>
-      <c r="AG3" t="s">
+      <c r="AN3" t="s">
         <v>9</v>
       </c>
-      <c r="AH3" t="s">
+      <c r="AO3" t="s">
         <v>9</v>
       </c>
-      <c r="AI3" t="s">
+      <c r="AP3" t="s">
         <v>9</v>
       </c>
-      <c r="AJ3" t="s">
+      <c r="AQ3" t="s">
         <v>6</v>
       </c>
-      <c r="AK3" t="s">
+      <c r="AR3" t="s">
         <v>6</v>
       </c>
-      <c r="AL3" t="s">
+      <c r="AS3" t="s">
         <v>6</v>
       </c>
-      <c r="AM3" t="s">
+      <c r="AT3" t="s">
         <v>12</v>
       </c>
-      <c r="AN3" t="s">
+      <c r="AU3" t="s">
         <v>12</v>
       </c>
-      <c r="AO3" t="s">
+      <c r="AV3" t="s">
         <v>12</v>
       </c>
-      <c r="AP3" t="s">
-        <v>24</v>
-      </c>
-      <c r="AQ3" t="s">
-        <v>24</v>
-      </c>
-      <c r="AR3" t="s">
-        <v>24</v>
-      </c>
-      <c r="AS3">
+      <c r="AW3" t="s">
+        <v>23</v>
+      </c>
+      <c r="AX3" t="s">
+        <v>23</v>
+      </c>
+      <c r="AY3" t="s">
+        <v>23</v>
+      </c>
+      <c r="AZ3">
         <v>1E-4</v>
       </c>
-      <c r="AT3">
-        <v>0</v>
-      </c>
-      <c r="AU3">
-        <v>0</v>
-      </c>
-      <c r="AV3">
-        <v>0</v>
-      </c>
-      <c r="AW3">
+      <c r="BA3">
+        <v>0</v>
+      </c>
+      <c r="BB3">
+        <v>0</v>
+      </c>
+      <c r="BC3">
+        <v>0</v>
+      </c>
+      <c r="BD3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E4" s="4">
         <v>500</v>
       </c>
-      <c r="X4" s="4">
+      <c r="F4" s="28">
+        <v>1100</v>
+      </c>
+      <c r="G4" s="23">
+        <v>0.93804433528099995</v>
+      </c>
+      <c r="H4" s="23">
+        <v>0.92481552709199999</v>
+      </c>
+      <c r="I4" s="23">
+        <v>-4.3337379581700003E-2</v>
+      </c>
+      <c r="J4" s="23">
+        <v>3.6985324549</v>
+      </c>
+      <c r="K4" s="23">
+        <v>3.3532599848200002</v>
+      </c>
+      <c r="L4" s="23">
+        <v>1.2059849296</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="AE4" s="4">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="Y4" s="4"/>
-      <c r="Z4" s="4">
+      <c r="AF4" s="4"/>
+      <c r="AG4" s="4">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="AA4" s="4"/>
-      <c r="AB4" s="4">
+      <c r="AH4" s="4"/>
+      <c r="AI4" s="4">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="AC4" s="4"/>
+      <c r="AJ4" s="4"/>
     </row>
-    <row r="5" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E5" s="4">
         <v>300</v>
       </c>
-      <c r="X5" s="4">
+      <c r="F5" s="28">
+        <v>3400</v>
+      </c>
+      <c r="G5" s="23">
+        <v>0.85862810002599999</v>
+      </c>
+      <c r="H5" s="23">
+        <v>0.90657837503200001</v>
+      </c>
+      <c r="I5" s="23">
+        <v>-0.54405658335399998</v>
+      </c>
+      <c r="J5" s="23">
+        <v>2.0012191389699998</v>
+      </c>
+      <c r="K5" s="23">
+        <v>2.7263980945499999</v>
+      </c>
+      <c r="L5" s="23">
+        <v>0.83730634617800004</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="AE5" s="4">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="Y5" s="4"/>
-      <c r="Z5" s="4">
+      <c r="AF5" s="4"/>
+      <c r="AG5" s="4">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="AA5" s="4"/>
-      <c r="AB5" s="4">
+      <c r="AH5" s="4"/>
+      <c r="AI5" s="4">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="AC5" s="4"/>
+      <c r="AJ5" s="4"/>
     </row>
-    <row r="6" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>3</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E6" s="6">
         <v>100</v>
       </c>
-      <c r="X6" s="4">
+      <c r="F6" s="29">
+        <v>2000</v>
+      </c>
+      <c r="G6" s="23">
+        <v>0.917065722413</v>
+      </c>
+      <c r="H6" s="23">
+        <v>0.91123579324699999</v>
+      </c>
+      <c r="I6" s="23">
+        <v>0.42501664731700001</v>
+      </c>
+      <c r="J6" s="23">
+        <v>3.19032653927</v>
+      </c>
+      <c r="K6" s="23">
+        <v>2.7107778195300001</v>
+      </c>
+      <c r="L6" s="23">
+        <v>0.96080058382300004</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="4">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="Y6" s="4"/>
-      <c r="Z6" s="4">
+      <c r="AF6" s="4"/>
+      <c r="AG6" s="4">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="AA6" s="4"/>
-      <c r="AB6" s="4">
+      <c r="AH6" s="4"/>
+      <c r="AI6" s="4">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="AC6" s="4"/>
+      <c r="AJ6" s="4"/>
     </row>
-    <row r="7" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A7">
+    <row r="7" spans="1:56" x14ac:dyDescent="0.2">
+      <c r="A7" s="30">
         <v>4</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E7" s="6">
         <v>300</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F7" s="29">
+        <v>1300</v>
+      </c>
+      <c r="G7" s="23">
+        <v>0.93788763839400002</v>
+      </c>
+      <c r="H7" s="23">
+        <v>0.90930385250900003</v>
+      </c>
+      <c r="I7" s="23">
+        <v>0.39099142223099997</v>
+      </c>
+      <c r="J7" s="23">
+        <v>3.16558927161</v>
+      </c>
+      <c r="K7" s="23">
+        <v>2.8425045392400001</v>
+      </c>
+      <c r="L7" s="23">
+        <v>1.0115969467399999</v>
+      </c>
+      <c r="M7" s="7">
         <v>8</v>
       </c>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7">
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7" s="7">
         <v>16</v>
       </c>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7">
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="7">
         <v>32</v>
       </c>
-      <c r="K7" s="7"/>
-      <c r="X7" s="4">
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="4">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="Y7" s="4"/>
-      <c r="Z7" s="4">
+      <c r="AF7" s="4"/>
+      <c r="AG7" s="4">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="AA7" s="4"/>
-      <c r="AB7" s="4">
+      <c r="AH7" s="4"/>
+      <c r="AI7" s="4">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="AC7" s="4"/>
+      <c r="AJ7" s="4"/>
     </row>
-    <row r="8" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>5</v>
       </c>
@@ -1083,28 +1254,47 @@
         <v>0.08</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="X8" s="12"/>
-      <c r="Y8" s="12"/>
-      <c r="Z8" s="12"/>
-      <c r="AA8" s="12"/>
-      <c r="AB8" s="12"/>
-      <c r="AC8" s="12"/>
+        <v>27</v>
+      </c>
+      <c r="M8" s="7">
+        <v>8</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8" s="7">
+        <v>16</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="7">
+        <v>32</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="12"/>
+      <c r="AF8" s="12"/>
+      <c r="AG8" s="12"/>
+      <c r="AH8" s="12"/>
+      <c r="AI8" s="12"/>
+      <c r="AJ8" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="AX1:BB1"/>
-    <mergeCell ref="F1:J1"/>
-    <mergeCell ref="L1:P1"/>
-    <mergeCell ref="R1:V1"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AJ1:AL1"/>
-    <mergeCell ref="X1:AB1"/>
-    <mergeCell ref="AD1:AF1"/>
-    <mergeCell ref="AM1:AO1"/>
-    <mergeCell ref="AS1:AW1"/>
-    <mergeCell ref="AP1:AR1"/>
+  <mergeCells count="12">
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="S1:W1"/>
+    <mergeCell ref="Y1:AC1"/>
+    <mergeCell ref="AN1:AP1"/>
+    <mergeCell ref="AQ1:AS1"/>
+    <mergeCell ref="AE1:AI1"/>
+    <mergeCell ref="AK1:AM1"/>
+    <mergeCell ref="AT1:AV1"/>
+    <mergeCell ref="AZ1:BD1"/>
+    <mergeCell ref="AW1:AY1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Prediction based on convolutional neural network/worklog/structure.xlsx
+++ b/Prediction based on convolutional neural network/worklog/structure.xlsx
@@ -347,42 +347,9 @@
     <xf numFmtId="44" fontId="1" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="1" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -396,6 +363,39 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -686,7 +686,7 @@
   <dimension ref="A1:BD8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+      <selection activeCell="I12" sqref="I11:I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -694,7 +694,7 @@
     <col min="2" max="2" width="12.75" customWidth="1"/>
     <col min="3" max="4" width="11.875" customWidth="1"/>
     <col min="5" max="5" width="17.75" customWidth="1"/>
-    <col min="6" max="6" width="17.75" style="27" customWidth="1"/>
+    <col min="6" max="6" width="17.75" style="16" customWidth="1"/>
     <col min="7" max="12" width="17.75" customWidth="1"/>
     <col min="13" max="14" width="6.5" customWidth="1"/>
     <col min="15" max="16" width="7.75" customWidth="1"/>
@@ -723,83 +723,83 @@
       <c r="E1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="26" t="s">
+      <c r="F1" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="G1" s="25" t="s">
+      <c r="G1" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24" t="s">
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="N1" s="14"/>
-      <c r="O1" s="14"/>
-      <c r="P1" s="14"/>
-      <c r="Q1" s="14"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="N1" s="22"/>
+      <c r="O1" s="22"/>
+      <c r="P1" s="22"/>
+      <c r="Q1" s="22"/>
       <c r="R1" s="13"/>
-      <c r="S1" s="15" t="s">
+      <c r="S1" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="T1" s="15"/>
-      <c r="U1" s="15"/>
-      <c r="V1" s="15"/>
-      <c r="W1" s="15"/>
+      <c r="T1" s="23"/>
+      <c r="U1" s="23"/>
+      <c r="V1" s="23"/>
+      <c r="W1" s="23"/>
       <c r="X1" s="8"/>
-      <c r="Y1" s="16" t="s">
+      <c r="Y1" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="Z1" s="16"/>
-      <c r="AA1" s="16"/>
-      <c r="AB1" s="16"/>
-      <c r="AC1" s="16"/>
+      <c r="Z1" s="24"/>
+      <c r="AA1" s="24"/>
+      <c r="AB1" s="24"/>
+      <c r="AC1" s="24"/>
       <c r="AD1" s="9"/>
-      <c r="AE1" s="19" t="s">
+      <c r="AE1" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="AF1" s="19"/>
-      <c r="AG1" s="19"/>
-      <c r="AH1" s="19"/>
-      <c r="AI1" s="19"/>
+      <c r="AF1" s="27"/>
+      <c r="AG1" s="27"/>
+      <c r="AH1" s="27"/>
+      <c r="AI1" s="27"/>
       <c r="AJ1" s="10"/>
-      <c r="AK1" s="20" t="s">
+      <c r="AK1" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="AL1" s="20"/>
-      <c r="AM1" s="20"/>
-      <c r="AN1" s="17" t="s">
+      <c r="AL1" s="28"/>
+      <c r="AM1" s="28"/>
+      <c r="AN1" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="AO1" s="17"/>
-      <c r="AP1" s="17"/>
-      <c r="AQ1" s="18" t="s">
+      <c r="AO1" s="25"/>
+      <c r="AP1" s="25"/>
+      <c r="AQ1" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="AR1" s="18"/>
-      <c r="AS1" s="18"/>
-      <c r="AT1" s="21" t="s">
+      <c r="AR1" s="26"/>
+      <c r="AS1" s="26"/>
+      <c r="AT1" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="AU1" s="21"/>
-      <c r="AV1" s="21"/>
-      <c r="AW1" s="21" t="s">
+      <c r="AU1" s="29"/>
+      <c r="AV1" s="29"/>
+      <c r="AW1" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="AX1" s="21"/>
-      <c r="AY1" s="21"/>
-      <c r="AZ1" s="22" t="s">
+      <c r="AX1" s="29"/>
+      <c r="AY1" s="29"/>
+      <c r="AZ1" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="BA1" s="22"/>
-      <c r="BB1" s="22"/>
-      <c r="BC1" s="22"/>
-      <c r="BD1" s="22"/>
+      <c r="BA1" s="30"/>
+      <c r="BB1" s="30"/>
+      <c r="BC1" s="30"/>
+      <c r="BD1" s="30"/>
     </row>
     <row r="2" spans="1:56" ht="15" thickTop="1" x14ac:dyDescent="0.2">
       <c r="M2" t="s">
@@ -915,7 +915,7 @@
       <c r="E3" s="4">
         <v>500</v>
       </c>
-      <c r="F3" s="28"/>
+      <c r="F3" s="17"/>
       <c r="M3">
         <v>4</v>
       </c>
@@ -1035,25 +1035,25 @@
       <c r="E4" s="4">
         <v>500</v>
       </c>
-      <c r="F4" s="28">
+      <c r="F4" s="17">
         <v>1100</v>
       </c>
-      <c r="G4" s="23">
+      <c r="G4" s="14">
         <v>0.93804433528099995</v>
       </c>
-      <c r="H4" s="23">
+      <c r="H4" s="14">
         <v>0.92481552709199999</v>
       </c>
-      <c r="I4" s="23">
+      <c r="I4" s="14">
         <v>-4.3337379581700003E-2</v>
       </c>
-      <c r="J4" s="23">
+      <c r="J4" s="14">
         <v>3.6985324549</v>
       </c>
-      <c r="K4" s="23">
+      <c r="K4" s="14">
         <v>3.3532599848200002</v>
       </c>
-      <c r="L4" s="23">
+      <c r="L4" s="14">
         <v>1.2059849296</v>
       </c>
       <c r="N4">
@@ -1088,25 +1088,25 @@
       <c r="E5" s="4">
         <v>300</v>
       </c>
-      <c r="F5" s="28">
+      <c r="F5" s="17">
         <v>3400</v>
       </c>
-      <c r="G5" s="23">
+      <c r="G5" s="14">
         <v>0.85862810002599999</v>
       </c>
-      <c r="H5" s="23">
+      <c r="H5" s="14">
         <v>0.90657837503200001</v>
       </c>
-      <c r="I5" s="23">
+      <c r="I5" s="14">
         <v>-0.54405658335399998</v>
       </c>
-      <c r="J5" s="23">
+      <c r="J5" s="14">
         <v>2.0012191389699998</v>
       </c>
-      <c r="K5" s="23">
+      <c r="K5" s="14">
         <v>2.7263980945499999</v>
       </c>
-      <c r="L5" s="23">
+      <c r="L5" s="14">
         <v>0.83730634617800004</v>
       </c>
       <c r="N5">
@@ -1141,25 +1141,25 @@
       <c r="E6" s="6">
         <v>100</v>
       </c>
-      <c r="F6" s="29">
+      <c r="F6" s="18">
         <v>2000</v>
       </c>
-      <c r="G6" s="23">
+      <c r="G6" s="14">
         <v>0.917065722413</v>
       </c>
-      <c r="H6" s="23">
+      <c r="H6" s="14">
         <v>0.91123579324699999</v>
       </c>
-      <c r="I6" s="23">
+      <c r="I6" s="14">
         <v>0.42501664731700001</v>
       </c>
-      <c r="J6" s="23">
+      <c r="J6" s="14">
         <v>3.19032653927</v>
       </c>
-      <c r="K6" s="23">
+      <c r="K6" s="14">
         <v>2.7107778195300001</v>
       </c>
-      <c r="L6" s="23">
+      <c r="L6" s="14">
         <v>0.96080058382300004</v>
       </c>
       <c r="N6">
@@ -1185,7 +1185,7 @@
       <c r="AJ6" s="4"/>
     </row>
     <row r="7" spans="1:56" x14ac:dyDescent="0.2">
-      <c r="A7" s="30">
+      <c r="A7" s="19">
         <v>4</v>
       </c>
       <c r="D7" s="11" t="s">
@@ -1194,25 +1194,25 @@
       <c r="E7" s="6">
         <v>300</v>
       </c>
-      <c r="F7" s="29">
+      <c r="F7" s="18">
         <v>1300</v>
       </c>
-      <c r="G7" s="23">
+      <c r="G7" s="14">
         <v>0.93788763839400002</v>
       </c>
-      <c r="H7" s="23">
+      <c r="H7" s="14">
         <v>0.90930385250900003</v>
       </c>
-      <c r="I7" s="23">
+      <c r="I7" s="14">
         <v>0.39099142223099997</v>
       </c>
-      <c r="J7" s="23">
+      <c r="J7" s="14">
         <v>3.16558927161</v>
       </c>
-      <c r="K7" s="23">
+      <c r="K7" s="14">
         <v>2.8425045392400001</v>
       </c>
-      <c r="L7" s="23">
+      <c r="L7" s="14">
         <v>1.0115969467399999</v>
       </c>
       <c r="M7" s="7">
@@ -1283,18 +1283,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="AZ1:BD1"/>
+    <mergeCell ref="AW1:AY1"/>
+    <mergeCell ref="AN1:AP1"/>
+    <mergeCell ref="AQ1:AS1"/>
+    <mergeCell ref="AE1:AI1"/>
+    <mergeCell ref="AK1:AM1"/>
+    <mergeCell ref="AT1:AV1"/>
     <mergeCell ref="G1:I1"/>
     <mergeCell ref="J1:L1"/>
     <mergeCell ref="M1:Q1"/>
     <mergeCell ref="S1:W1"/>
     <mergeCell ref="Y1:AC1"/>
-    <mergeCell ref="AN1:AP1"/>
-    <mergeCell ref="AQ1:AS1"/>
-    <mergeCell ref="AE1:AI1"/>
-    <mergeCell ref="AK1:AM1"/>
-    <mergeCell ref="AT1:AV1"/>
-    <mergeCell ref="AZ1:BD1"/>
-    <mergeCell ref="AW1:AY1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Prediction based on convolutional neural network/worklog/structure.xlsx
+++ b/Prediction based on convolutional neural network/worklog/structure.xlsx
@@ -363,6 +363,24 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -376,24 +394,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -685,7 +685,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BD8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <selection activeCell="I12" sqref="I11:I12"/>
     </sheetView>
   </sheetViews>
@@ -726,80 +726,80 @@
       <c r="F1" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="G1" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21" t="s">
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
-      <c r="M1" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="N1" s="22"/>
-      <c r="O1" s="22"/>
-      <c r="P1" s="22"/>
-      <c r="Q1" s="22"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="N1" s="28"/>
+      <c r="O1" s="28"/>
+      <c r="P1" s="28"/>
+      <c r="Q1" s="28"/>
       <c r="R1" s="13"/>
-      <c r="S1" s="23" t="s">
+      <c r="S1" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="T1" s="23"/>
-      <c r="U1" s="23"/>
-      <c r="V1" s="23"/>
-      <c r="W1" s="23"/>
+      <c r="T1" s="29"/>
+      <c r="U1" s="29"/>
+      <c r="V1" s="29"/>
+      <c r="W1" s="29"/>
       <c r="X1" s="8"/>
-      <c r="Y1" s="24" t="s">
+      <c r="Y1" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="Z1" s="24"/>
-      <c r="AA1" s="24"/>
-      <c r="AB1" s="24"/>
-      <c r="AC1" s="24"/>
+      <c r="Z1" s="30"/>
+      <c r="AA1" s="30"/>
+      <c r="AB1" s="30"/>
+      <c r="AC1" s="30"/>
       <c r="AD1" s="9"/>
-      <c r="AE1" s="27" t="s">
+      <c r="AE1" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="AF1" s="27"/>
-      <c r="AG1" s="27"/>
-      <c r="AH1" s="27"/>
-      <c r="AI1" s="27"/>
+      <c r="AF1" s="24"/>
+      <c r="AG1" s="24"/>
+      <c r="AH1" s="24"/>
+      <c r="AI1" s="24"/>
       <c r="AJ1" s="10"/>
-      <c r="AK1" s="28" t="s">
+      <c r="AK1" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="AL1" s="28"/>
-      <c r="AM1" s="28"/>
-      <c r="AN1" s="25" t="s">
+      <c r="AL1" s="25"/>
+      <c r="AM1" s="25"/>
+      <c r="AN1" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="AO1" s="25"/>
-      <c r="AP1" s="25"/>
-      <c r="AQ1" s="26" t="s">
+      <c r="AO1" s="22"/>
+      <c r="AP1" s="22"/>
+      <c r="AQ1" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="AR1" s="26"/>
-      <c r="AS1" s="26"/>
-      <c r="AT1" s="29" t="s">
+      <c r="AR1" s="23"/>
+      <c r="AS1" s="23"/>
+      <c r="AT1" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="AU1" s="29"/>
-      <c r="AV1" s="29"/>
-      <c r="AW1" s="29" t="s">
+      <c r="AU1" s="21"/>
+      <c r="AV1" s="21"/>
+      <c r="AW1" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="AX1" s="29"/>
-      <c r="AY1" s="29"/>
-      <c r="AZ1" s="30" t="s">
+      <c r="AX1" s="21"/>
+      <c r="AY1" s="21"/>
+      <c r="AZ1" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="BA1" s="30"/>
-      <c r="BB1" s="30"/>
-      <c r="BC1" s="30"/>
-      <c r="BD1" s="30"/>
+      <c r="BA1" s="20"/>
+      <c r="BB1" s="20"/>
+      <c r="BC1" s="20"/>
+      <c r="BD1" s="20"/>
     </row>
     <row r="2" spans="1:56" ht="15" thickTop="1" x14ac:dyDescent="0.2">
       <c r="M2" t="s">
@@ -1283,6 +1283,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="S1:W1"/>
+    <mergeCell ref="Y1:AC1"/>
     <mergeCell ref="AZ1:BD1"/>
     <mergeCell ref="AW1:AY1"/>
     <mergeCell ref="AN1:AP1"/>
@@ -1290,11 +1295,6 @@
     <mergeCell ref="AE1:AI1"/>
     <mergeCell ref="AK1:AM1"/>
     <mergeCell ref="AT1:AV1"/>
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="M1:Q1"/>
-    <mergeCell ref="S1:W1"/>
-    <mergeCell ref="Y1:AC1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
